--- a/file/adrit/formatted_output.xlsx
+++ b/file/adrit/formatted_output.xlsx
@@ -459,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX9"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,7 @@
     <col width="8" customWidth="1" min="48" max="48"/>
     <col width="7" customWidth="1" min="49" max="49"/>
     <col width="13" customWidth="1" min="50" max="50"/>
+    <col width="8" customWidth="1" min="51" max="51"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -583,6 +584,11 @@
           <t>Grand Total</t>
         </is>
       </c>
+      <c r="AY2" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr"/>
@@ -731,6 +737,7 @@
       </c>
       <c r="AW3" s="1" t="n"/>
       <c r="AX3" s="1" t="inlineStr"/>
+      <c r="AY3" s="1" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr"/>
@@ -975,6 +982,7 @@
         </is>
       </c>
       <c r="AX4" s="1" t="inlineStr"/>
+      <c r="AY4" s="1" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="B5" s="3" t="n"/>
@@ -1026,6 +1034,7 @@
       <c r="AV5" s="3" t="n"/>
       <c r="AW5" s="3" t="n"/>
       <c r="AX5" s="3" t="n"/>
+      <c r="AY5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -1180,6 +1189,9 @@
       <c r="AX6" s="3" t="n">
         <v>142783</v>
       </c>
+      <c r="AY6" s="3" t="n">
+        <v>285566</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -1334,6 +1346,9 @@
       <c r="AX7" s="3" t="n">
         <v>156474</v>
       </c>
+      <c r="AY7" s="3" t="n">
+        <v>312948</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -1488,6 +1503,9 @@
       <c r="AX8" s="3" t="n">
         <v>157723</v>
       </c>
+      <c r="AY8" s="3" t="n">
+        <v>315446</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -1641,6 +1659,9 @@
       </c>
       <c r="AX9" s="3" t="n">
         <v>456980</v>
+      </c>
+      <c r="AY9" s="3" t="n">
+        <v>913960</v>
       </c>
     </row>
   </sheetData>
